--- a/regen-commercial-point-and-acre.xlsx
+++ b/regen-commercial-point-and-acre.xlsx
@@ -9,16 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10050" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="read.me" sheetId="4" r:id="rId1"/>
     <sheet name="regen-acre-expanded" sheetId="1" r:id="rId2"/>
     <sheet name="commercial-acre-point" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
-    <sheet name="commercial-acre" sheetId="6" r:id="rId5"/>
-    <sheet name="diversity-acre-point" sheetId="2" r:id="rId6"/>
-    <sheet name="diversity-acre" sheetId="3" r:id="rId7"/>
+    <sheet name="commercial-acre" sheetId="8" r:id="rId4"/>
+    <sheet name="diversity-acre-point" sheetId="2" r:id="rId5"/>
+    <sheet name="diversity-acre" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3827" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3794" uniqueCount="60">
   <si>
     <t>harvest</t>
   </si>
@@ -201,18 +200,6 @@
     <t>protected</t>
   </si>
   <si>
-    <t>boot-w-p</t>
-  </si>
-  <si>
-    <t>boot-w-c</t>
-  </si>
-  <si>
-    <t>gas-p</t>
-  </si>
-  <si>
-    <t>red pine-p</t>
-  </si>
-  <si>
     <t>need to add paper birch to the R code</t>
   </si>
   <si>
@@ -234,25 +221,25 @@
     <t>per.acre_point.expsapl</t>
   </si>
   <si>
-    <t>per.acre.exp01</t>
+    <t>comm.per.acre.supp</t>
   </si>
   <si>
-    <t>per.acre.exp02</t>
+    <t>comm.per.acre.exp01</t>
   </si>
   <si>
-    <t>per.acre.exp03</t>
+    <t>comm.per.acre.exp02</t>
   </si>
   <si>
-    <t>per.acre.expsapl</t>
+    <t>comm.per.acre.exp03</t>
   </si>
   <si>
-    <t>boot-wedge</t>
+    <t>comm.per.acre.expsapl</t>
   </si>
   <si>
-    <t>gasline</t>
+    <t>comm.per.acre.exp</t>
   </si>
   <si>
-    <t>redpine</t>
+    <t>comm.per.acre.top4</t>
   </si>
 </sst>
 </file>
@@ -262,7 +249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,14 +396,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -781,7 +760,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,23 +796,17 @@
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1165,257 +1138,257 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1430,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q927"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1200" topLeftCell="A304"/>
       <selection activeCell="G11" sqref="G11"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -50610,16 +50583,16 @@
         <v>31</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>32</v>
@@ -53214,7 +53187,7 @@
       <c r="J75" s="7">
         <v>17346.501960274501</v>
       </c>
-      <c r="K75" s="18">
+      <c r="K75" s="16">
         <v>69386.007841098006</v>
       </c>
     </row>
@@ -53284,7 +53257,7 @@
       <c r="J77" s="4">
         <v>10841.5637251716</v>
       </c>
-      <c r="K77" s="17">
+      <c r="K77" s="15">
         <v>34693.003920549003</v>
       </c>
     </row>
@@ -53319,7 +53292,7 @@
       <c r="J78" s="7">
         <v>19514.8147053088</v>
       </c>
-      <c r="K78" s="18">
+      <c r="K78" s="16">
         <v>78059.258821235198</v>
       </c>
     </row>
@@ -53354,7 +53327,7 @@
       <c r="J79" s="4">
         <v>6504.9382351029399</v>
       </c>
-      <c r="K79" s="17">
+      <c r="K79" s="15">
         <v>26019.752940411701</v>
       </c>
     </row>
@@ -53424,7 +53397,7 @@
       <c r="J81" s="4">
         <v>75890.946076200897</v>
       </c>
-      <c r="K81" s="17">
+      <c r="K81" s="15">
         <v>75890.946076200897</v>
       </c>
     </row>
@@ -53879,7 +53852,7 @@
       <c r="J94" s="4">
         <v>6504.9382351029399</v>
       </c>
-      <c r="K94" s="17">
+      <c r="K94" s="15">
         <v>26019.752940411701</v>
       </c>
     </row>
@@ -53914,7 +53887,7 @@
       <c r="J95" s="4">
         <v>4336.6254900686199</v>
       </c>
-      <c r="K95" s="17">
+      <c r="K95" s="15">
         <v>0</v>
       </c>
     </row>
@@ -54019,7 +53992,7 @@
       <c r="J98" s="4">
         <v>13009.8764702059</v>
       </c>
-      <c r="K98" s="17">
+      <c r="K98" s="15">
         <v>26019.752940411701</v>
       </c>
     </row>
@@ -57951,750 +57924,375 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="9" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4823.0278485999197</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3810.1920003939399</v>
+      </c>
+      <c r="E2" s="4">
+        <v>440.18167498221999</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>4250.3736753761596</v>
+      </c>
+      <c r="I2" s="4">
+        <v>403.49986873370102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3608.2277092338099</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5317.3882030814102</v>
+      </c>
+      <c r="E3" s="4">
+        <v>168.507047454131</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5485.8952505355401</v>
+      </c>
+      <c r="I3" s="4">
+        <v>192.57948280472101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1072.4144275122101</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8460.1582614852796</v>
+      </c>
+      <c r="E4" s="4">
+        <v>271.87691690078202</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>8732.0351783860606</v>
+      </c>
+      <c r="I4" s="4">
+        <v>385.15896560944202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4">
+        <v>279.40299260854698</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3213.1344149982901</v>
+      </c>
+      <c r="E5" s="4">
+        <v>26.562687283409801</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3239.6971022817002</v>
+      </c>
+      <c r="I5" s="4">
+        <v>265.62687283409798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2829.9825170461299</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5242.91497894862</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45.312819483463798</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5288.2277984320799</v>
+      </c>
+      <c r="I6" s="4">
+        <v>657.03588251022495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1720.91297041958</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1496.23477575884</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1339.3027667782801</v>
+      </c>
+      <c r="F7" s="4">
+        <v>43.768064273800199</v>
+      </c>
+      <c r="G7" s="4">
+        <v>17.5072257095201</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2896.8128325204402</v>
+      </c>
+      <c r="I7" s="4">
+        <v>393.912578464202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3093.5302539907302</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2170.3625318699601</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1859.7675767998701</v>
+      </c>
+      <c r="F8" s="4">
+        <v>66.027251247332998</v>
+      </c>
+      <c r="G8" s="4">
+        <v>11.0045418745555</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4107.1619017917301</v>
+      </c>
+      <c r="I8" s="4">
+        <v>484.19984248044199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1755.5821368903701</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9655.70175289705</v>
+      </c>
+      <c r="E9" s="4">
+        <v>616.25434497510798</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>25.677264373962799</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10297.633362246101</v>
+      </c>
+      <c r="I9" s="4">
+        <v>487.86802310529299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1714.02989696397</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2103.58214627396</v>
+      </c>
+      <c r="E10" s="4">
+        <v>592.55225478375701</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2696.13440105772</v>
+      </c>
+      <c r="I10" s="4">
+        <v>325.903740131066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2025.6716964119601</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9549.5951402278497</v>
+      </c>
+      <c r="E11" s="4">
+        <v>110.045418745555</v>
+      </c>
+      <c r="F11" s="4">
+        <v>82.534064059166198</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>9742.1746230325698</v>
+      </c>
+      <c r="I11" s="4">
+        <v>192.57948280472101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2835.9403749767498</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2835.9403749767498</v>
+      </c>
+      <c r="E12" s="4">
+        <v>192.57948280472101</v>
+      </c>
+      <c r="F12" s="4">
+        <v>38.515896560944199</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3067.0357543424202</v>
+      </c>
+      <c r="I12" s="4">
+        <v>154.063586243777</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="10" max="15" width="15.140625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4">
-        <v>7356.7753849378396</v>
-      </c>
-      <c r="D2" s="4">
-        <v>7356.7753849378396</v>
-      </c>
-      <c r="E2" s="4">
-        <v>14945.8699925579</v>
-      </c>
-      <c r="H2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="4">
-        <v>7356.7753849378396</v>
-      </c>
-      <c r="K2" s="4">
-        <v>3436.4073421274502</v>
-      </c>
-      <c r="L2" s="4">
-        <v>1306.7893476034701</v>
-      </c>
-      <c r="M2" s="4">
-        <v>1306.7893476034701</v>
-      </c>
-      <c r="N2" s="4">
-        <v>1306.7893476034701</v>
-      </c>
-      <c r="O2" s="4">
-        <v>7356.7753849378396</v>
-      </c>
-      <c r="P2" s="20">
-        <v>14945.8699925579</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4">
-        <v>9277.3645647692829</v>
-      </c>
-      <c r="D3" s="4">
-        <v>9277.3645647692829</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3458.3271494180863</v>
-      </c>
-      <c r="H3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="4">
-        <v>8741.7240141909842</v>
-      </c>
-      <c r="K3" s="4">
-        <v>4083.3276827672848</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1552.7987771412249</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1552.7987771412249</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1552.7987771412249</v>
-      </c>
-      <c r="O3" s="4">
-        <v>8741.7240141909842</v>
-      </c>
-      <c r="P3" s="20">
-        <v>4998.5314859212031</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3002.2791854321199</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3002.2791854321199</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2501.8993211934398</v>
-      </c>
-      <c r="H4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="4">
-        <v>9813.0051153475797</v>
-      </c>
-      <c r="K4" s="4">
-        <v>4583.7314668809304</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1743.091216155555</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1743.091216155555</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1743.091216155555</v>
-      </c>
-      <c r="O4" s="4">
-        <v>9813.0051153475797</v>
-      </c>
-      <c r="P4" s="20">
-        <v>1918.1228129149699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5840.4552971085504</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5840.4552971085504</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2864.9328379245849</v>
-      </c>
-      <c r="H5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="4">
-        <v>3002.2791854321199</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1402.38809751598</v>
-      </c>
-      <c r="L5" s="4">
-        <v>533.29702930538201</v>
-      </c>
-      <c r="M5" s="4">
-        <v>533.29702930538201</v>
-      </c>
-      <c r="N5" s="4">
-        <v>533.29702930538201</v>
-      </c>
-      <c r="O5" s="4">
-        <v>3002.2791854321199</v>
-      </c>
-      <c r="P5" s="20">
-        <v>2501.8993211934398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4">
-        <v>693.86007841098001</v>
-      </c>
-      <c r="D6" s="4">
-        <v>693.86007841098001</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="4">
-        <v>4336.6254900686199</v>
-      </c>
-      <c r="K6" s="4">
-        <v>2025.6716964119701</v>
-      </c>
-      <c r="L6" s="4">
-        <v>770.31793121888495</v>
-      </c>
-      <c r="M6" s="4">
-        <v>770.31793121888495</v>
-      </c>
-      <c r="N6" s="4">
-        <v>770.31793121888495</v>
-      </c>
-      <c r="O6" s="4">
-        <v>4336.6254900686199</v>
-      </c>
-      <c r="P6" s="20">
-        <v>1113.4578960987001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3866.8243953111901</v>
-      </c>
-      <c r="D7" s="4">
-        <v>3866.8243953111901</v>
-      </c>
-      <c r="E7" s="4">
-        <v>271.03909312928897</v>
-      </c>
-      <c r="H7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="4">
-        <v>7344.2851041484801</v>
-      </c>
-      <c r="K7" s="4">
-        <v>3430.5730342460802</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1304.5706899674699</v>
-      </c>
-      <c r="M7" s="4">
-        <v>1304.5706899674699</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1304.5706899674699</v>
-      </c>
-      <c r="O7" s="4">
-        <v>7344.2851041484801</v>
-      </c>
-      <c r="P7" s="20">
-        <v>4616.4077797504697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="H8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="4">
-        <v>693.86007841098001</v>
-      </c>
-      <c r="K8" s="4">
-        <v>324.10747142591498</v>
-      </c>
-      <c r="L8" s="4">
-        <v>123.250868995022</v>
-      </c>
-      <c r="M8" s="4">
-        <v>123.250868995022</v>
-      </c>
-      <c r="N8" s="4">
-        <v>123.250868995022</v>
-      </c>
-      <c r="O8" s="4">
-        <v>693.86007841098001</v>
-      </c>
-      <c r="P8" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="4">
-        <v>3758.4087580594701</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1755.5821368903701</v>
-      </c>
-      <c r="L9" s="4">
-        <v>667.60887372303398</v>
-      </c>
-      <c r="M9" s="4">
-        <v>667.60887372303398</v>
-      </c>
-      <c r="N9" s="4">
-        <v>667.60887372303398</v>
-      </c>
-      <c r="O9" s="4">
-        <v>3758.4087580594701</v>
-      </c>
-      <c r="P9" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="4">
-        <v>3975.2400325629101</v>
-      </c>
-      <c r="K10" s="4">
-        <v>1856.8657217109701</v>
-      </c>
-      <c r="L10" s="4">
-        <v>706.12477028397802</v>
-      </c>
-      <c r="M10" s="4">
-        <v>706.12477028397802</v>
-      </c>
-      <c r="N10" s="4">
-        <v>706.12477028397802</v>
-      </c>
-      <c r="O10" s="4">
-        <v>3975.2400325629101</v>
-      </c>
-      <c r="P10" s="20">
-        <v>542.07818625857794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="4">
-        <v>11412.1723422859</v>
-      </c>
-      <c r="K14" s="4">
-        <v>5330.7149905578099</v>
-      </c>
-      <c r="L14" s="4">
-        <v>2027.1524505760101</v>
-      </c>
-      <c r="M14" s="4">
-        <v>2027.1524505760101</v>
-      </c>
-      <c r="N14" s="4">
-        <v>2027.1524505760101</v>
-      </c>
-      <c r="O14" s="4">
-        <v>11412.1723422859</v>
-      </c>
-      <c r="P14" s="20">
-        <v>9129.7378738286807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="4">
-        <v>9507.2174205350602</v>
-      </c>
-      <c r="K15" s="4">
-        <v>4440.8956421339299</v>
-      </c>
-      <c r="L15" s="4">
-        <v>1688.7739261337099</v>
-      </c>
-      <c r="M15" s="4">
-        <v>1688.7739261337099</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1688.7739261337099</v>
-      </c>
-      <c r="O15" s="4">
-        <v>9507.2174205350602</v>
-      </c>
-      <c r="P15" s="20">
-        <v>3836.2456258299399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="4">
-        <v>6071.2756860960699</v>
-      </c>
-      <c r="K16" s="4">
-        <v>2835.9403749767598</v>
-      </c>
-      <c r="L16" s="4">
-        <v>1078.44510370644</v>
-      </c>
-      <c r="M16" s="4">
-        <v>1078.44510370644</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1078.44510370644</v>
-      </c>
-      <c r="O16" s="4">
-        <v>6071.2756860960699</v>
-      </c>
-      <c r="P16" s="20">
-        <v>867.32509801372498</v>
-      </c>
-    </row>
-    <row r="17" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="4">
-        <v>10118.792810160099</v>
-      </c>
-      <c r="K17" s="4">
-        <v>4726.56729162793</v>
-      </c>
-      <c r="L17" s="4">
-        <v>1797.4085061774001</v>
-      </c>
-      <c r="M17" s="4">
-        <v>1797.4085061774001</v>
-      </c>
-      <c r="N17" s="4">
-        <v>1797.4085061774001</v>
-      </c>
-      <c r="O17" s="4">
-        <v>10118.792810160099</v>
-      </c>
-      <c r="P17" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="4">
-        <f>J2</f>
-        <v>7356.7753849378396</v>
-      </c>
-      <c r="K20" s="4">
-        <f t="shared" ref="K20:O20" si="0">K2</f>
-        <v>3436.4073421274502</v>
-      </c>
-      <c r="L20" s="4">
-        <f t="shared" si="0"/>
-        <v>1306.7893476034701</v>
-      </c>
-      <c r="M20" s="4">
-        <f t="shared" si="0"/>
-        <v>1306.7893476034701</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="0"/>
-        <v>1306.7893476034701</v>
-      </c>
-      <c r="O20" s="4">
-        <f t="shared" si="0"/>
-        <v>7356.7753849378396</v>
-      </c>
-    </row>
-    <row r="21" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="4">
-        <f>AVERAGE(J3:J4)</f>
-        <v>9277.3645647692829</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" ref="K21:O21" si="1">AVERAGE(K3:K4)</f>
-        <v>4333.5295748241078</v>
-      </c>
-      <c r="L21" s="4">
-        <f t="shared" si="1"/>
-        <v>1647.9449966483899</v>
-      </c>
-      <c r="M21" s="4">
-        <f t="shared" si="1"/>
-        <v>1647.9449966483899</v>
-      </c>
-      <c r="N21" s="4">
-        <f t="shared" si="1"/>
-        <v>1647.9449966483899</v>
-      </c>
-      <c r="O21" s="4">
-        <f t="shared" si="1"/>
-        <v>9277.3645647692829</v>
-      </c>
-    </row>
-    <row r="22" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="4">
-        <f>J5</f>
-        <v>3002.2791854321199</v>
-      </c>
-      <c r="K22" s="4">
-        <f t="shared" ref="K22:O22" si="2">K5</f>
-        <v>1402.38809751598</v>
-      </c>
-      <c r="L22" s="4">
-        <f t="shared" si="2"/>
-        <v>533.29702930538201</v>
-      </c>
-      <c r="M22" s="4">
-        <f t="shared" si="2"/>
-        <v>533.29702930538201</v>
-      </c>
-      <c r="N22" s="4">
-        <f t="shared" si="2"/>
-        <v>533.29702930538201</v>
-      </c>
-      <c r="O22" s="4">
-        <f t="shared" si="2"/>
-        <v>3002.2791854321199</v>
-      </c>
-    </row>
-    <row r="23" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H23" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="4">
-        <f>AVERAGE(J6:J7)</f>
-        <v>5840.4552971085504</v>
-      </c>
-      <c r="K23" s="4">
-        <f t="shared" ref="K23:O23" si="3">AVERAGE(K6:K7)</f>
-        <v>2728.1223653290253</v>
-      </c>
-      <c r="L23" s="4">
-        <f t="shared" si="3"/>
-        <v>1037.4443105931773</v>
-      </c>
-      <c r="M23" s="4">
-        <f t="shared" si="3"/>
-        <v>1037.4443105931773</v>
-      </c>
-      <c r="N23" s="4">
-        <f t="shared" si="3"/>
-        <v>1037.4443105931773</v>
-      </c>
-      <c r="O23" s="4">
-        <f t="shared" si="3"/>
-        <v>5840.4552971085504</v>
-      </c>
-    </row>
-    <row r="24" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="4">
-        <f>J8</f>
-        <v>693.86007841098001</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" ref="K24:O24" si="4">K8</f>
-        <v>324.10747142591498</v>
-      </c>
-      <c r="L24" s="4">
-        <f t="shared" si="4"/>
-        <v>123.250868995022</v>
-      </c>
-      <c r="M24" s="4">
-        <f t="shared" si="4"/>
-        <v>123.250868995022</v>
-      </c>
-      <c r="N24" s="4">
-        <f t="shared" si="4"/>
-        <v>123.250868995022</v>
-      </c>
-      <c r="O24" s="4">
-        <f t="shared" si="4"/>
-        <v>693.86007841098001</v>
-      </c>
-    </row>
-    <row r="25" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25" s="4">
-        <f>AVERAGE(J9:J10)</f>
-        <v>3866.8243953111901</v>
-      </c>
-      <c r="K25" s="4">
-        <f t="shared" ref="K25:O25" si="5">AVERAGE(K9:K10)</f>
-        <v>1806.2239293006701</v>
-      </c>
-      <c r="L25" s="4">
-        <f t="shared" si="5"/>
-        <v>686.86682200350606</v>
-      </c>
-      <c r="M25" s="4">
-        <f t="shared" si="5"/>
-        <v>686.86682200350606</v>
-      </c>
-      <c r="N25" s="4">
-        <f t="shared" si="5"/>
-        <v>686.86682200350606</v>
-      </c>
-      <c r="O25" s="4">
-        <f t="shared" si="5"/>
-        <v>3866.8243953111901</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="H2:P10">
-    <sortCondition ref="H2:H10"/>
-    <sortCondition ref="I2:I10"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -63770,7 +63368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V12"/>
   <sheetViews>

--- a/regen-commercial-point-and-acre.xlsx
+++ b/regen-commercial-point-and-acre.xlsx
@@ -1041,11 +1041,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1377,135 +1377,135 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="J9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="J10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
       <c r="J11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
@@ -1528,36 +1528,36 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
@@ -51837,11 +51837,11 @@
         <f>AVERAGE(Y2,Y3,Y4)</f>
         <v>54.327248140635561</v>
       </c>
-      <c r="Z14" s="26">
+      <c r="Z14" s="25">
         <f>AVERAGE(Z2,Z3,Z4)</f>
         <v>48.444895199459097</v>
       </c>
-      <c r="AA14" s="26">
+      <c r="AA14" s="25">
         <f>AVERAGE(AA2,AA3,AA4)</f>
         <v>0</v>
       </c>
@@ -51902,11 +51902,11 @@
         <f>AVERAGE(Y9,Y10,Y11,Y12)</f>
         <v>61.723901098901102</v>
       </c>
-      <c r="Z15" s="26">
+      <c r="Z15" s="25">
         <f>AVERAGE(Z9,Z10,Z11,Z12)</f>
         <v>36.263736263736263</v>
       </c>
-      <c r="AA15" s="26">
+      <c r="AA15" s="25">
         <f>AVERAGE(AA9,AA10,AA11,AA12)</f>
         <v>5</v>
       </c>
@@ -51967,11 +51967,11 @@
         <f>AVERAGE(Y5,Y6,Y7,Y8)</f>
         <v>66.201298701298697</v>
       </c>
-      <c r="Z16" s="26">
+      <c r="Z16" s="25">
         <f t="shared" ref="Z16:AB16" si="0">AVERAGE(Z5,Z6,Z7,Z8)</f>
         <v>35.946969696969695</v>
       </c>
-      <c r="AA16" s="26">
+      <c r="AA16" s="25">
         <f t="shared" si="0"/>
         <v>6.8344155844155843</v>
       </c>
@@ -62247,7 +62247,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>

--- a/regen-commercial-point-and-acre.xlsx
+++ b/regen-commercial-point-and-acre.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="read.me" sheetId="4" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <t xml:space="preserve">####  include: rem, sum, swb, wha, yep,blc, oaks,bassw </t>
   </si>
   <si>
-    <t>seedling 01 = 1 ft to 4.5 ft tall</t>
-  </si>
-  <si>
     <t>seedling 02 = 4.5 ft to 9 ft tall</t>
   </si>
   <si>
@@ -461,6 +458,9 @@
   </si>
   <si>
     <t>% stocked (exposed 4.5 ft -0 9 ft)</t>
+  </si>
+  <si>
+    <t>seedling 01 = seedlings with height 1 ft to 4.5 ft tall</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1371,7 @@
   <dimension ref="A2:J30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,37 +1593,37 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1640,9 +1640,9 @@
   <dimension ref="A1:Q927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1200" topLeftCell="A304"/>
+      <pane ySplit="1200" topLeftCell="A364" activePane="bottomLeft"/>
       <selection activeCell="G11" sqref="G11"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F366" sqref="D366:F369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50795,8 +50795,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB249"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6000" topLeftCell="A60" activePane="bottomLeft"/>
       <selection activeCell="B146" sqref="B53:B146"/>
+      <selection pane="bottomLeft" activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50821,76 +50823,76 @@
         <v>4</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="N1" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="20" t="s">
+      <c r="V1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>81</v>
-      </c>
       <c r="X1" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB1" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA1" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB1" s="21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -50898,7 +50900,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1">
         <v>393</v>
@@ -50937,7 +50939,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S2" s="22" t="s">
         <v>21</v>
@@ -50975,7 +50977,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1">
         <v>387</v>
@@ -51014,7 +51016,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S3" s="22" t="s">
         <v>21</v>
@@ -51052,7 +51054,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1">
         <v>390</v>
@@ -51091,7 +51093,7 @@
         <v>1</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S4" s="22" t="s">
         <v>21</v>
@@ -51129,7 +51131,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1">
         <v>948</v>
@@ -51168,7 +51170,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S5" s="22" t="s">
         <v>17</v>
@@ -51206,7 +51208,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1">
         <v>386</v>
@@ -51245,7 +51247,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S6" s="22" t="s">
         <v>17</v>
@@ -51283,7 +51285,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1">
         <v>708</v>
@@ -51322,7 +51324,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S7" s="22" t="s">
         <v>17</v>
@@ -51360,7 +51362,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1">
         <v>389</v>
@@ -51399,7 +51401,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S8" s="22" t="s">
         <v>17</v>
@@ -51437,7 +51439,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1">
         <v>702</v>
@@ -51476,7 +51478,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S9" s="22" t="s">
         <v>19</v>
@@ -51514,7 +51516,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1">
         <v>711</v>
@@ -51553,7 +51555,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S10" s="22" t="s">
         <v>19</v>
@@ -51591,7 +51593,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1">
         <v>385</v>
@@ -51630,7 +51632,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S11" s="22" t="s">
         <v>19</v>
@@ -51668,7 +51670,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1">
         <v>391</v>
@@ -51707,7 +51709,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S12" s="22" t="s">
         <v>19</v>
@@ -51745,7 +51747,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1">
         <v>947</v>
@@ -51789,7 +51791,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1">
         <v>384</v>
@@ -51828,7 +51830,7 @@
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" t="s">
         <v>21</v>
@@ -51854,7 +51856,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1">
         <v>395</v>
@@ -51893,7 +51895,7 @@
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S15" t="s">
         <v>19</v>
@@ -51919,7 +51921,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1">
         <v>710</v>
@@ -51958,7 +51960,7 @@
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S16" t="s">
         <v>17</v>
@@ -51985,7 +51987,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1">
         <v>706</v>
@@ -52029,7 +52031,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1">
         <v>712</v>
@@ -52073,7 +52075,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1">
         <v>949</v>
@@ -52117,7 +52119,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1">
         <v>392</v>
@@ -52161,7 +52163,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1">
         <v>388</v>
@@ -52205,7 +52207,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="1">
         <v>713</v>
@@ -52249,7 +52251,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="1">
         <v>394</v>
@@ -52293,7 +52295,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="1">
         <v>396</v>
@@ -52337,7 +52339,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1">
         <v>397</v>
@@ -52381,7 +52383,7 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1">
         <v>399</v>
@@ -52425,7 +52427,7 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1">
         <v>400</v>
@@ -52469,7 +52471,7 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="1">
         <v>705</v>
@@ -52513,7 +52515,7 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1">
         <v>707</v>
@@ -52557,7 +52559,7 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="1">
         <v>398</v>
@@ -52601,7 +52603,7 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="1">
         <v>701</v>
@@ -52645,7 +52647,7 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1">
         <v>703</v>
@@ -52689,7 +52691,7 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="1">
         <v>704</v>
@@ -52733,7 +52735,7 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1">
         <v>709</v>
@@ -52777,7 +52779,7 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="1">
         <v>946</v>
@@ -52821,7 +52823,7 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36" s="1">
         <v>742</v>
@@ -52865,7 +52867,7 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C37" s="1">
         <v>743</v>
@@ -52909,7 +52911,7 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="1">
         <v>744</v>
@@ -52953,7 +52955,7 @@
         <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C39" s="1">
         <v>735</v>
@@ -52997,7 +52999,7 @@
         <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="1">
         <v>730</v>
@@ -53041,7 +53043,7 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" s="1">
         <v>740</v>
@@ -53085,7 +53087,7 @@
         <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C42" s="1">
         <v>738</v>
@@ -53129,7 +53131,7 @@
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" s="1">
         <v>737</v>
@@ -53173,7 +53175,7 @@
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="1">
         <v>731</v>
@@ -53217,7 +53219,7 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" s="1">
         <v>733</v>
@@ -53261,7 +53263,7 @@
         <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1">
         <v>745</v>
@@ -53305,7 +53307,7 @@
         <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" s="1">
         <v>732</v>
@@ -53349,7 +53351,7 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C48" s="1">
         <v>734</v>
@@ -53393,7 +53395,7 @@
         <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="1">
         <v>729</v>
@@ -53437,7 +53439,7 @@
         <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="1">
         <v>736</v>
@@ -53481,7 +53483,7 @@
         <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="1">
         <v>739</v>
@@ -53525,7 +53527,7 @@
         <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="1">
         <v>741</v>
@@ -60961,7 +60963,7 @@
         <v>29</v>
       </c>
       <c r="B221" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C221" s="1">
         <v>758</v>
@@ -61005,7 +61007,7 @@
         <v>29</v>
       </c>
       <c r="B222" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C222" s="1">
         <v>754</v>
@@ -61049,7 +61051,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C223" s="1">
         <v>763</v>
@@ -61093,7 +61095,7 @@
         <v>29</v>
       </c>
       <c r="B224" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C224" s="1">
         <v>762</v>
@@ -61137,7 +61139,7 @@
         <v>29</v>
       </c>
       <c r="B225" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C225" s="1">
         <v>767</v>
@@ -61181,7 +61183,7 @@
         <v>29</v>
       </c>
       <c r="B226" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C226" s="1">
         <v>770</v>
@@ -61225,7 +61227,7 @@
         <v>29</v>
       </c>
       <c r="B227" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C227" s="1">
         <v>774</v>
@@ -61269,7 +61271,7 @@
         <v>29</v>
       </c>
       <c r="B228" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C228" s="1">
         <v>766</v>
@@ -61313,7 +61315,7 @@
         <v>29</v>
       </c>
       <c r="B229" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C229" s="1">
         <v>764</v>
@@ -61357,7 +61359,7 @@
         <v>29</v>
       </c>
       <c r="B230" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C230" s="1">
         <v>771</v>
@@ -61401,7 +61403,7 @@
         <v>29</v>
       </c>
       <c r="B231" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C231" s="1">
         <v>748</v>
@@ -61445,7 +61447,7 @@
         <v>29</v>
       </c>
       <c r="B232" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C232" s="1">
         <v>752</v>
@@ -61489,7 +61491,7 @@
         <v>29</v>
       </c>
       <c r="B233" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C233" s="1">
         <v>761</v>
@@ -61533,7 +61535,7 @@
         <v>29</v>
       </c>
       <c r="B234" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C234" s="1">
         <v>769</v>
@@ -61577,7 +61579,7 @@
         <v>29</v>
       </c>
       <c r="B235" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C235" s="1">
         <v>747</v>
@@ -61621,7 +61623,7 @@
         <v>29</v>
       </c>
       <c r="B236" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C236" s="1">
         <v>753</v>
@@ -61665,7 +61667,7 @@
         <v>29</v>
       </c>
       <c r="B237" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C237" s="1">
         <v>768</v>
@@ -61709,7 +61711,7 @@
         <v>29</v>
       </c>
       <c r="B238" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C238" s="1">
         <v>775</v>
@@ -61753,7 +61755,7 @@
         <v>29</v>
       </c>
       <c r="B239" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C239" s="1">
         <v>746</v>
@@ -61797,7 +61799,7 @@
         <v>29</v>
       </c>
       <c r="B240" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C240" s="1">
         <v>750</v>
@@ -61841,7 +61843,7 @@
         <v>29</v>
       </c>
       <c r="B241" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C241" s="1">
         <v>755</v>
@@ -61885,7 +61887,7 @@
         <v>29</v>
       </c>
       <c r="B242" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C242" s="1">
         <v>756</v>
@@ -61929,7 +61931,7 @@
         <v>29</v>
       </c>
       <c r="B243" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C243" s="1">
         <v>757</v>
@@ -61973,7 +61975,7 @@
         <v>29</v>
       </c>
       <c r="B244" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C244" s="1">
         <v>772</v>
@@ -62017,7 +62019,7 @@
         <v>29</v>
       </c>
       <c r="B245" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C245" s="1">
         <v>773</v>
@@ -62061,7 +62063,7 @@
         <v>29</v>
       </c>
       <c r="B246" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C246" s="1">
         <v>751</v>
@@ -62105,7 +62107,7 @@
         <v>29</v>
       </c>
       <c r="B247" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C247" s="1">
         <v>759</v>
@@ -62149,7 +62151,7 @@
         <v>29</v>
       </c>
       <c r="B248" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C248" s="1">
         <v>760</v>
@@ -62193,7 +62195,7 @@
         <v>29</v>
       </c>
       <c r="B249" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C249" s="1">
         <v>765</v>
@@ -62246,7 +62248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -62385,7 +62387,7 @@
     </row>
     <row r="5" spans="1:10" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:J5" si="0">SUBTOTAL(1,C2:C4)</f>
@@ -62550,7 +62552,7 @@
     </row>
     <row r="10" spans="1:10" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" ref="C10:J10" si="1">SUBTOTAL(1,C6:C9)</f>
@@ -62715,7 +62717,7 @@
     </row>
     <row r="15" spans="1:10" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" ref="C15:J15" si="2">SUBTOTAL(1,C11:C14)</f>
@@ -62752,7 +62754,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" ref="C16:J16" si="3">SUBTOTAL(1,C2:C14)</f>
@@ -62815,7 +62817,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -62847,7 +62849,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -62879,7 +62881,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -62949,28 +62951,28 @@
         <v>4</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>30</v>
@@ -62979,19 +62981,19 @@
         <v>31</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>32</v>
       </c>
       <c r="P1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="R1" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U1" s="20" t="s">
         <v>0</v>
@@ -63000,19 +63002,19 @@
         <v>1</v>
       </c>
       <c r="W1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="20" t="s">
-        <v>81</v>
-      </c>
       <c r="Y1" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="AA1" s="21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:27" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -63071,7 +63073,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V2" s="23" t="s">
         <v>21</v>
@@ -63148,7 +63150,7 @@
         <v>1</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V3" s="23" t="s">
         <v>21</v>
@@ -63225,7 +63227,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V4" s="23" t="s">
         <v>21</v>
@@ -63379,7 +63381,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V6" s="23" t="s">
         <v>17</v>
@@ -63456,7 +63458,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V7" s="23" t="s">
         <v>17</v>
@@ -63533,7 +63535,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V8" s="23" t="s">
         <v>17</v>
@@ -63687,7 +63689,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V10" s="23" t="s">
         <v>19</v>
@@ -63764,7 +63766,7 @@
         <v>1</v>
       </c>
       <c r="U11" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V11" s="23" t="s">
         <v>19</v>
@@ -63841,7 +63843,7 @@
         <v>1</v>
       </c>
       <c r="U12" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V12" s="23" t="s">
         <v>19</v>
@@ -63981,7 +63983,7 @@
         <v>1</v>
       </c>
       <c r="U14" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="22" t="s">
         <v>21</v>
@@ -64052,7 +64054,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V15" s="22" t="s">
         <v>19</v>
@@ -64069,7 +64071,7 @@
     </row>
     <row r="16" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P16" s="4">
         <f>SUBTOTAL(9,P2:P15)</f>
@@ -64084,7 +64086,7 @@
         <v>14</v>
       </c>
       <c r="U16" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V16" s="22" t="s">
         <v>17</v>
@@ -64661,7 +64663,7 @@
     </row>
     <row r="27" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P27" s="4">
         <f>SUBTOTAL(9,P17:P26)</f>
@@ -65518,7 +65520,7 @@
     </row>
     <row r="43" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P43" s="4">
         <f>SUBTOTAL(9,P28:P42)</f>
@@ -66263,7 +66265,7 @@
     </row>
     <row r="57" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B57" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P57" s="4">
         <f>SUBTOTAL(9,P44:P56)</f>
@@ -68744,7 +68746,7 @@
     </row>
     <row r="102" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B102" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P102" s="4">
         <f>SUBTOTAL(9,P58:P101)</f>
@@ -70721,7 +70723,7 @@
     </row>
     <row r="138" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B138" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P138" s="4">
         <f>SUBTOTAL(9,P103:P137)</f>
@@ -70741,7 +70743,7 @@
         <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C139" s="1">
         <v>384</v>
@@ -70797,7 +70799,7 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C140" s="1">
         <v>385</v>
@@ -70853,7 +70855,7 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C141" s="1">
         <v>386</v>
@@ -70909,7 +70911,7 @@
         <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C142" s="1">
         <v>387</v>
@@ -70965,7 +70967,7 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C143" s="1">
         <v>388</v>
@@ -71021,7 +71023,7 @@
         <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C144" s="1">
         <v>389</v>
@@ -71077,7 +71079,7 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C145" s="1">
         <v>390</v>
@@ -71133,7 +71135,7 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C146" s="1">
         <v>391</v>
@@ -71189,7 +71191,7 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C147" s="1">
         <v>392</v>
@@ -71245,7 +71247,7 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C148" s="1">
         <v>393</v>
@@ -71301,7 +71303,7 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C149" s="1">
         <v>394</v>
@@ -71357,7 +71359,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C150" s="1">
         <v>395</v>
@@ -71413,7 +71415,7 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C151" s="1">
         <v>396</v>
@@ -71469,7 +71471,7 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C152" s="1">
         <v>397</v>
@@ -71525,7 +71527,7 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C153" s="1">
         <v>398</v>
@@ -71581,7 +71583,7 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C154" s="1">
         <v>399</v>
@@ -71637,7 +71639,7 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C155" s="1">
         <v>400</v>
@@ -71693,7 +71695,7 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C156" s="1">
         <v>701</v>
@@ -71749,7 +71751,7 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C157" s="1">
         <v>702</v>
@@ -71805,7 +71807,7 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C158" s="1">
         <v>703</v>
@@ -71861,7 +71863,7 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C159" s="1">
         <v>704</v>
@@ -71917,7 +71919,7 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C160" s="1">
         <v>705</v>
@@ -71973,7 +71975,7 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C161" s="1">
         <v>706</v>
@@ -72029,7 +72031,7 @@
         <v>20</v>
       </c>
       <c r="B162" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C162" s="1">
         <v>707</v>
@@ -72085,7 +72087,7 @@
         <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C163" s="1">
         <v>708</v>
@@ -72141,7 +72143,7 @@
         <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C164" s="1">
         <v>709</v>
@@ -72197,7 +72199,7 @@
         <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C165" s="1">
         <v>710</v>
@@ -72253,7 +72255,7 @@
         <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C166" s="1">
         <v>711</v>
@@ -72309,7 +72311,7 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C167" s="1">
         <v>712</v>
@@ -72365,7 +72367,7 @@
         <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C168" s="1">
         <v>713</v>
@@ -72421,7 +72423,7 @@
         <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C169" s="1">
         <v>946</v>
@@ -72477,7 +72479,7 @@
         <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C170" s="1">
         <v>947</v>
@@ -72533,7 +72535,7 @@
         <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C171" s="1">
         <v>948</v>
@@ -72589,7 +72591,7 @@
         <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C172" s="1">
         <v>949</v>
@@ -72642,7 +72644,7 @@
     </row>
     <row r="173" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B173" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P173" s="4">
         <f>SUBTOTAL(9,P139:P172)</f>
@@ -72662,7 +72664,7 @@
         <v>29</v>
       </c>
       <c r="B174" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C174" s="1">
         <v>746</v>
@@ -72718,7 +72720,7 @@
         <v>29</v>
       </c>
       <c r="B175" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C175" s="1">
         <v>747</v>
@@ -72774,7 +72776,7 @@
         <v>29</v>
       </c>
       <c r="B176" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C176" s="1">
         <v>748</v>
@@ -72830,7 +72832,7 @@
         <v>29</v>
       </c>
       <c r="B177" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C177" s="1">
         <v>750</v>
@@ -72886,7 +72888,7 @@
         <v>29</v>
       </c>
       <c r="B178" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C178" s="1">
         <v>751</v>
@@ -72942,7 +72944,7 @@
         <v>29</v>
       </c>
       <c r="B179" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C179" s="1">
         <v>752</v>
@@ -72998,7 +73000,7 @@
         <v>29</v>
       </c>
       <c r="B180" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C180" s="1">
         <v>753</v>
@@ -73054,7 +73056,7 @@
         <v>29</v>
       </c>
       <c r="B181" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C181" s="1">
         <v>754</v>
@@ -73110,7 +73112,7 @@
         <v>29</v>
       </c>
       <c r="B182" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C182" s="1">
         <v>755</v>
@@ -73166,7 +73168,7 @@
         <v>29</v>
       </c>
       <c r="B183" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C183" s="1">
         <v>756</v>
@@ -73222,7 +73224,7 @@
         <v>29</v>
       </c>
       <c r="B184" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C184" s="1">
         <v>757</v>
@@ -73278,7 +73280,7 @@
         <v>29</v>
       </c>
       <c r="B185" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C185" s="1">
         <v>758</v>
@@ -73334,7 +73336,7 @@
         <v>29</v>
       </c>
       <c r="B186" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C186" s="1">
         <v>759</v>
@@ -73390,7 +73392,7 @@
         <v>29</v>
       </c>
       <c r="B187" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C187" s="1">
         <v>760</v>
@@ -73446,7 +73448,7 @@
         <v>29</v>
       </c>
       <c r="B188" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C188" s="1">
         <v>761</v>
@@ -73502,7 +73504,7 @@
         <v>29</v>
       </c>
       <c r="B189" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C189" s="1">
         <v>762</v>
@@ -73558,7 +73560,7 @@
         <v>29</v>
       </c>
       <c r="B190" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C190" s="1">
         <v>763</v>
@@ -73614,7 +73616,7 @@
         <v>29</v>
       </c>
       <c r="B191" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C191" s="1">
         <v>764</v>
@@ -73670,7 +73672,7 @@
         <v>29</v>
       </c>
       <c r="B192" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C192" s="1">
         <v>765</v>
@@ -73726,7 +73728,7 @@
         <v>29</v>
       </c>
       <c r="B193" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C193" s="1">
         <v>766</v>
@@ -73782,7 +73784,7 @@
         <v>29</v>
       </c>
       <c r="B194" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C194" s="1">
         <v>767</v>
@@ -73838,7 +73840,7 @@
         <v>29</v>
       </c>
       <c r="B195" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C195" s="1">
         <v>768</v>
@@ -73894,7 +73896,7 @@
         <v>29</v>
       </c>
       <c r="B196" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C196" s="1">
         <v>769</v>
@@ -73950,7 +73952,7 @@
         <v>29</v>
       </c>
       <c r="B197" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C197" s="1">
         <v>770</v>
@@ -74006,7 +74008,7 @@
         <v>29</v>
       </c>
       <c r="B198" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C198" s="1">
         <v>771</v>
@@ -74062,7 +74064,7 @@
         <v>29</v>
       </c>
       <c r="B199" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C199" s="1">
         <v>772</v>
@@ -74118,7 +74120,7 @@
         <v>29</v>
       </c>
       <c r="B200" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C200" s="1">
         <v>773</v>
@@ -74174,7 +74176,7 @@
         <v>29</v>
       </c>
       <c r="B201" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C201" s="1">
         <v>774</v>
@@ -74230,7 +74232,7 @@
         <v>29</v>
       </c>
       <c r="B202" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C202" s="1">
         <v>775</v>
@@ -74283,7 +74285,7 @@
     </row>
     <row r="203" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B203" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P203" s="4">
         <f>SUBTOTAL(9,P174:P202)</f>
@@ -74303,7 +74305,7 @@
         <v>27</v>
       </c>
       <c r="B204" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C204" s="1">
         <v>729</v>
@@ -74359,7 +74361,7 @@
         <v>27</v>
       </c>
       <c r="B205" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C205" s="1">
         <v>730</v>
@@ -74415,7 +74417,7 @@
         <v>27</v>
       </c>
       <c r="B206" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C206" s="1">
         <v>731</v>
@@ -74471,7 +74473,7 @@
         <v>27</v>
       </c>
       <c r="B207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C207" s="1">
         <v>732</v>
@@ -74527,7 +74529,7 @@
         <v>27</v>
       </c>
       <c r="B208" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C208" s="1">
         <v>733</v>
@@ -74583,7 +74585,7 @@
         <v>27</v>
       </c>
       <c r="B209" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C209" s="1">
         <v>734</v>
@@ -74639,7 +74641,7 @@
         <v>27</v>
       </c>
       <c r="B210" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C210" s="1">
         <v>735</v>
@@ -74695,7 +74697,7 @@
         <v>27</v>
       </c>
       <c r="B211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C211" s="1">
         <v>736</v>
@@ -74751,7 +74753,7 @@
         <v>27</v>
       </c>
       <c r="B212" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C212" s="1">
         <v>737</v>
@@ -74807,7 +74809,7 @@
         <v>27</v>
       </c>
       <c r="B213" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C213" s="1">
         <v>738</v>
@@ -74863,7 +74865,7 @@
         <v>27</v>
       </c>
       <c r="B214" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C214" s="1">
         <v>739</v>
@@ -74919,7 +74921,7 @@
         <v>27</v>
       </c>
       <c r="B215" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C215" s="1">
         <v>740</v>
@@ -74975,7 +74977,7 @@
         <v>27</v>
       </c>
       <c r="B216" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C216" s="1">
         <v>741</v>
@@ -75031,7 +75033,7 @@
         <v>27</v>
       </c>
       <c r="B217" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C217" s="1">
         <v>742</v>
@@ -75087,7 +75089,7 @@
         <v>27</v>
       </c>
       <c r="B218" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C218" s="1">
         <v>743</v>
@@ -75143,7 +75145,7 @@
         <v>27</v>
       </c>
       <c r="B219" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C219" s="1">
         <v>744</v>
@@ -75199,7 +75201,7 @@
         <v>27</v>
       </c>
       <c r="B220" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C220" s="1">
         <v>745</v>
@@ -75252,7 +75254,7 @@
     </row>
     <row r="221" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B221" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P221" s="4">
         <f>SUBTOTAL(9,P204:P220)</f>
@@ -76445,7 +76447,7 @@
     </row>
     <row r="243" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B243" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P243" s="4">
         <f>SUBTOTAL(9,P222:P242)</f>
@@ -77358,7 +77360,7 @@
     </row>
     <row r="260" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B260" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P260" s="4">
         <f>SUBTOTAL(9,P244:P259)</f>
@@ -77375,7 +77377,7 @@
     </row>
     <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B261" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P261" s="4">
         <f>SUBTOTAL(9,P2:P259)</f>
@@ -77425,16 +77427,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="G1" s="15"/>
       <c r="N1" s="15"/>

--- a/regen-commercial-point-and-acre.xlsx
+++ b/regen-commercial-point-and-acre.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="read.me" sheetId="4" r:id="rId1"/>
@@ -50795,7 +50795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6000" topLeftCell="A60" activePane="bottomLeft"/>
       <selection activeCell="B146" sqref="B53:B146"/>
       <selection pane="bottomLeft" activeCell="D148" sqref="D148"/>
@@ -62248,8 +62248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -62289,7 +62289,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -62321,7 +62321,7 @@
         <v>385.15896560944202</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -62353,7 +62353,7 @@
         <v>265.62687283409798</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -62385,7 +62385,7 @@
         <v>657.03588251022495</v>
       </c>
     </row>
-    <row r="5" spans="1:10" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>100</v>
       </c>
@@ -62422,7 +62422,7 @@
         <v>435.94057365125497</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -62454,7 +62454,7 @@
         <v>403.49986873370102</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -62486,7 +62486,7 @@
         <v>393.912578464202</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -62518,7 +62518,7 @@
         <v>487.86802310529299</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -62550,7 +62550,7 @@
         <v>192.57948280472101</v>
       </c>
     </row>
-    <row r="10" spans="1:10" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>101</v>
       </c>
@@ -62587,7 +62587,7 @@
         <v>369.46498827697928</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -62619,7 +62619,7 @@
         <v>192.57948280472101</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -62651,7 +62651,7 @@
         <v>484.19984248044199</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -62683,7 +62683,7 @@
         <v>325.903740131066</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -62715,7 +62715,7 @@
         <v>154.063586243777</v>
       </c>
     </row>
-    <row r="15" spans="1:10" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>102</v>
       </c>
